--- a/data-transfer/transfer/data/calphi/classLevel.xlsx
+++ b/data-transfer/transfer/data/calphi/classLevel.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data-transfer/transfer/data/calphi/classLevel.xlsx
+++ b/data-transfer/transfer/data/calphi/classLevel.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G2" s="3">
         <v>4</v>

--- a/data-transfer/transfer/data/calphi/classLevel.xlsx
+++ b/data-transfer/transfer/data/calphi/classLevel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Level</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>ELT</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>GRAD</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -735,6 +741,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
